--- a/data/subgruposppt.xlsx
+++ b/data/subgruposppt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/martins2023/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamires\OneDrive - UFSC\PC LAB\martins2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4D361C20488DEA4E38A055DC1A575E5BDEDD85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEBB81F-8F95-4209-B3A7-2203C8A45CFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,16 +78,10 @@
     <t>Long Evans</t>
   </si>
   <si>
-    <t>Flinders sens.</t>
-  </si>
-  <si>
     <t>CD-COBS</t>
   </si>
   <si>
     <t>Wistar kyoto</t>
-  </si>
-  <si>
-    <t>Flinders res.</t>
   </si>
   <si>
     <t>Natural</t>
@@ -281,12 +275,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Model/Stress</t>
-  </si>
-  <si>
-    <t>No Model/Stress</t>
-  </si>
-  <si>
     <t>Light cycle</t>
   </si>
   <si>
@@ -435,6 +423,18 @@
   </si>
   <si>
     <t>nortriptiline</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>No stress</t>
+  </si>
+  <si>
+    <t>Flinders sensitive</t>
+  </si>
+  <si>
+    <t>Flinders resistant</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,51 +836,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3">
         <v>1.84</v>
@@ -898,7 +898,7 @@
         <v>82.88</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1">
         <v>2.0699999999999998</v>
@@ -906,16 +906,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>1.65</v>
@@ -933,7 +933,7 @@
         <v>78.89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1">
         <v>1.53</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>1.01</v>
@@ -968,7 +968,7 @@
         <v>43.15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1">
         <v>0.28000000000000003</v>
@@ -976,16 +976,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>3.84</v>
@@ -1003,7 +1003,7 @@
         <v>82.35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1">
         <v>3.71</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>7.26</v>
@@ -1038,7 +1038,7 @@
         <v>98.01</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K6" s="1">
         <v>33.08</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>91.56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1">
         <v>6.05</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>57.71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K8" s="1">
         <v>0.64</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>74.760000000000005</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1">
         <v>0.68</v>
@@ -1151,13 +1151,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         <v>53.19</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K10" s="1">
         <v>0.4</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1213,7 +1213,7 @@
         <v>99.09</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1">
         <v>77.52</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -1248,7 +1248,7 @@
         <v>87.57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1">
         <v>12.37</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1283,7 +1283,7 @@
         <v>71.52</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1">
         <v>0.67</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1318,7 +1318,7 @@
         <v>87.86</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
         <v>2.41</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -1353,7 +1353,7 @@
         <v>38.24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1">
         <v>0.2</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -1382,13 +1382,13 @@
         <v>2.79</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2">
         <v>26.81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1">
         <v>0.52</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2">
         <v>6.87</v>
@@ -1423,7 +1423,7 @@
         <v>88.55</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1">
         <v>15.72</v>
@@ -1431,13 +1431,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1452,13 +1452,13 @@
         <v>2.98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1487,13 +1487,13 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2">
         <v>26.9</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1">
         <v>0.11</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2">
         <v>1.86</v>
@@ -1528,24 +1528,24 @@
         <v>85.87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K20" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2">
         <v>1.82</v>
@@ -1563,7 +1563,7 @@
         <v>82.4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1">
         <v>2.0099999999999998</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1598,7 +1598,7 @@
         <v>65.77</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1">
         <v>0.75</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2">
         <v>2.36</v>
@@ -1633,7 +1633,7 @@
         <v>87.38</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K23" s="1">
         <v>3.55</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2">
         <v>8.06</v>
@@ -1668,7 +1668,7 @@
         <v>99.36</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K24" s="1">
         <v>68.11</v>
@@ -1676,16 +1676,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2">
         <v>3.24</v>
@@ -1703,7 +1703,7 @@
         <v>95.41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K25" s="1">
         <v>7.95</v>
@@ -1711,16 +1711,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3">
         <v>1.44</v>
@@ -1738,7 +1738,7 @@
         <v>79.72</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K26" s="1">
         <v>1.53</v>
@@ -1746,16 +1746,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2">
         <v>1.33</v>
@@ -1773,7 +1773,7 @@
         <v>77.510000000000005</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K27" s="1">
         <v>1.32</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1808,7 +1808,7 @@
         <v>88.75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K28" s="1">
         <v>2.79</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2">
         <v>9.5299999999999994</v>
@@ -1843,7 +1843,7 @@
         <v>97.67</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K29" s="1">
         <v>64.7</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2">
         <v>2.2599999999999998</v>
@@ -1878,7 +1878,7 @@
         <v>80.930000000000007</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K30" s="1">
         <v>2.65</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -1913,7 +1913,7 @@
         <v>73.569999999999993</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K31" s="1">
         <v>1.19</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1948,7 +1948,7 @@
         <v>95.27</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K32" s="1">
         <v>7.84</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>16</v>
@@ -1977,30 +1977,30 @@
         <v>0.73</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I33" s="2">
         <v>2.19</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K33" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2">
         <v>1.06</v>
@@ -2018,7 +2018,7 @@
         <v>48.7</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K34" s="1">
         <v>0.26</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>0.94</v>
@@ -2053,7 +2053,7 @@
         <v>63.96</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K35" s="1">
         <v>0.41</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2">
         <v>0.37</v>
@@ -2088,24 +2088,24 @@
         <v>19.73</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K36" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2">
         <v>0.13</v>
@@ -2123,7 +2123,7 @@
         <v>40.96</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K37" s="1">
         <v>0.11</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2">
         <v>1.28</v>
@@ -2158,24 +2158,24 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K38" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2">
         <v>1.53</v>
@@ -2193,7 +2193,7 @@
         <v>82.8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K39" s="1">
         <v>2.0099999999999998</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
@@ -2228,7 +2228,7 @@
         <v>74.92</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K40" s="1">
         <v>1.1599999999999999</v>
@@ -2236,16 +2236,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2">
         <v>1.33</v>
@@ -2263,7 +2263,7 @@
         <v>70.650000000000006</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K41" s="1">
         <v>1.01</v>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2">
         <v>3.88</v>
@@ -2298,7 +2298,7 @@
         <v>97.36</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K42" s="1">
         <v>18.440000000000001</v>
@@ -2306,16 +2306,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2">
         <v>0.81</v>
@@ -2333,7 +2333,7 @@
         <v>74.98</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K43" s="1">
         <v>1.05</v>
@@ -2341,16 +2341,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2">
         <v>0.5</v>
@@ -2368,7 +2368,7 @@
         <v>36.26</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K44" s="1">
         <v>0.14000000000000001</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" s="2">
         <v>4.4800000000000004</v>
@@ -2397,13 +2397,13 @@
         <v>5.81</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I45" s="2">
         <v>60.92</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K45" s="1">
         <v>1.37</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E46" s="9">
         <v>2.12</v>
@@ -2438,7 +2438,7 @@
         <v>88.33</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K46" s="1">
         <v>3.14</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E47" s="9">
         <v>3.7</v>
@@ -2473,7 +2473,7 @@
         <v>96.44</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K47" s="1">
         <v>14.22</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E48" s="9">
         <v>1.47</v>
@@ -2508,7 +2508,7 @@
         <v>69.06</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K48" s="1">
         <v>0.88</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="9">
         <v>1.21</v>
@@ -2543,7 +2543,7 @@
         <v>41.21</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K49" s="1">
         <v>0.17</v>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E50" s="9">
         <v>0.05</v>
@@ -2578,7 +2578,7 @@
         <v>71.38</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K50" s="1">
         <v>0.63</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E51" s="9">
         <v>1.29</v>
@@ -2613,7 +2613,7 @@
         <v>69.349999999999994</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K51" s="1">
         <v>1.1299999999999999</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E52" s="9">
         <v>2.1</v>
@@ -2648,7 +2648,7 @@
         <v>83.32</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K52" s="1">
         <v>2.4</v>
@@ -2656,16 +2656,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E53" s="9">
         <v>2.35</v>
@@ -2683,7 +2683,7 @@
         <v>85.72</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K53" s="1">
         <v>2.54</v>
@@ -2691,16 +2691,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E54" s="9">
         <v>1.04</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E55" s="9">
         <v>6.84</v>
@@ -2753,7 +2753,7 @@
         <v>84.11</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K55" s="1">
         <v>16.72</v>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="9">
         <v>0.7</v>
@@ -2788,7 +2788,7 @@
         <v>59.16</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K56" s="1">
         <v>0.41</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E57" s="9">
         <v>0.96</v>
@@ -2823,7 +2823,7 @@
         <v>68.28</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K57" s="1">
         <v>0.46</v>
@@ -2831,16 +2831,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E58" s="9">
         <v>2.04</v>
@@ -2858,7 +2858,7 @@
         <v>88.39</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K58" s="1">
         <v>3.64</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E59" s="9">
         <v>1.37</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -2901,16 +2901,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E60" s="9">
         <v>7.2</v>
@@ -2922,13 +2922,13 @@
         <v>13.18</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9">
         <v>79.66</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K60" s="1">
         <v>21.92</v>
@@ -2936,16 +2936,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E61" s="9">
         <v>0.74</v>
@@ -2963,7 +2963,7 @@
         <v>32.75</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K61" s="1">
         <v>0.16</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E62" s="9">
         <v>0.35</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -3006,16 +3006,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E63" s="9">
         <v>1.1499999999999999</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E64" s="9">
         <v>0.63</v>
@@ -3068,7 +3068,7 @@
         <v>21.33</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K64" s="1">
         <v>0.17</v>
@@ -3076,16 +3076,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E65" s="9">
         <v>0.8</v>
@@ -3103,7 +3103,7 @@
         <v>38.24</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K65" s="1">
         <v>0.18</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E66" s="9">
         <v>1.42</v>
@@ -3138,7 +3138,7 @@
         <v>31.03</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K66" s="1">
         <v>0.21</v>
@@ -3146,16 +3146,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E67" s="9">
         <v>0.33</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E68" s="9">
         <v>1.75</v>
@@ -3208,7 +3208,7 @@
         <v>76.05</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K68" s="1">
         <v>1.44</v>
@@ -3216,16 +3216,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E69" s="9">
         <v>2.13</v>
@@ -3243,7 +3243,7 @@
         <v>89.34</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K69" s="1">
         <v>3.32</v>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E70" s="9">
         <v>2.42</v>
@@ -3278,7 +3278,7 @@
         <v>78.77</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K70" s="1">
         <v>1.66</v>
@@ -3286,16 +3286,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E71" s="9">
         <v>0.17</v>
@@ -3313,7 +3313,7 @@
         <v>50.62</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K71" s="1">
         <v>0.3</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E72" s="9">
         <v>8.6999999999999993</v>
@@ -3342,13 +3342,13 @@
         <v>10.84</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9">
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
@@ -3356,16 +3356,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E73" s="9">
         <v>1.71</v>
@@ -3383,7 +3383,7 @@
         <v>82.01</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K73" s="1">
         <v>1.98</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E74" s="9">
         <v>2.64</v>
@@ -3418,7 +3418,7 @@
         <v>93.68</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K74" s="1">
         <v>6.88</v>
@@ -3426,16 +3426,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E75" s="9">
         <v>1.19</v>
@@ -3453,7 +3453,7 @@
         <v>67.88</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K75" s="1">
         <v>0.7</v>
@@ -3461,16 +3461,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E76" s="9">
         <v>1.28</v>
@@ -3488,7 +3488,7 @@
         <v>35.07</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K76" s="1">
         <v>0.44</v>
@@ -3496,16 +3496,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E77" s="9">
         <v>0.2</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E78" s="9">
         <v>1.32</v>
@@ -3558,7 +3558,7 @@
         <v>81</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K78" s="1">
         <v>1.42</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E79" s="9">
         <v>1.65</v>
@@ -3593,7 +3593,7 @@
         <v>83.92</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K79" s="1">
         <v>1.91</v>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E80" s="9">
         <v>2.09</v>
@@ -3628,7 +3628,7 @@
         <v>85.62</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K80" s="1">
         <v>2.46</v>
@@ -3636,16 +3636,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E81" s="9">
         <v>0.2</v>
@@ -3663,7 +3663,7 @@
         <v>0.87</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K81" s="1">
         <v>2E-3</v>
@@ -3671,16 +3671,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E82" s="9">
         <v>0.48</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K82" s="1">
         <v>0</v>
@@ -3706,16 +3706,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E83" s="9">
         <v>0.82</v>
@@ -3733,7 +3733,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K83" s="1">
         <v>0.08</v>
@@ -3741,16 +3741,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E84" s="9">
         <v>0.57999999999999996</v>
@@ -3768,7 +3768,7 @@
         <v>71.95</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K84" s="1">
         <v>0.43</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E85" s="9">
         <v>1.01</v>
@@ -3803,7 +3803,7 @@
         <v>54.84</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K85" s="1">
         <v>0.55000000000000004</v>
@@ -3811,16 +3811,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E86" s="9">
         <v>1.21</v>
@@ -3838,7 +3838,7 @@
         <v>43.77</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K86" s="1">
         <v>0.48</v>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E87" s="9">
         <v>2.86</v>
@@ -3867,13 +3867,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9">
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K87" s="1">
         <v>0</v>
@@ -3881,16 +3881,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E88" s="9">
         <v>0.55000000000000004</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E89" s="9">
         <v>0.31</v>
@@ -3937,13 +3937,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9">
         <v>43.96</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K89" s="1">
         <v>0.21</v>
@@ -3951,16 +3951,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E90" s="9">
         <v>0.73</v>
@@ -3978,7 +3978,7 @@
         <v>79.069999999999993</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K90" s="1">
         <v>1.92</v>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E91" s="9">
         <v>1.35</v>
@@ -4013,7 +4013,7 @@
         <v>82.54</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K91" s="1">
         <v>2.64</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E92" s="9">
         <v>-0.36</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E93" s="9">
         <v>2.52</v>
@@ -4083,7 +4083,7 @@
         <v>72.930000000000007</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K93" s="1">
         <v>2</v>
@@ -4091,16 +4091,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E94" s="9">
         <v>1.3</v>
@@ -4118,7 +4118,7 @@
         <v>74.81</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K94" s="1">
         <v>1.19</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E95" s="9">
         <v>1.68</v>
@@ -4153,7 +4153,7 @@
         <v>88.21</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K95" s="1">
         <v>3.14</v>
@@ -4161,16 +4161,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E96" s="9">
         <v>1.44</v>
@@ -4188,7 +4188,7 @@
         <v>78.959999999999994</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K96" s="1">
         <v>1.1299999999999999</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E97" s="9">
         <v>4.4800000000000004</v>
@@ -4223,7 +4223,7 @@
         <v>98.4</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K97" s="1">
         <v>32.61</v>
@@ -4231,16 +4231,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E98" s="9">
         <v>1.1399999999999999</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K98" s="1">
         <v>0</v>
@@ -4266,16 +4266,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E99" s="9">
         <v>0.64</v>
@@ -4287,13 +4287,13 @@
         <v>1.48</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9">
         <v>79.23</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K99" s="1">
         <v>0.57999999999999996</v>
@@ -4301,16 +4301,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E100" s="9">
         <v>2.3199999999999998</v>
@@ -4328,7 +4328,7 @@
         <v>61</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K100" s="1">
         <v>1.46</v>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E101" s="6">
         <v>1.63</v>
@@ -4363,7 +4363,7 @@
         <v>76.73</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K101" s="1">
         <v>1.19</v>
@@ -4371,16 +4371,16 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102" s="6">
         <v>1.81</v>
@@ -4398,7 +4398,7 @@
         <v>64.41</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K102" s="1">
         <v>1.22</v>
@@ -4406,16 +4406,16 @@
     </row>
     <row r="103" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E103" s="6">
         <v>5.57</v>
@@ -4433,7 +4433,7 @@
         <v>93.96</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K103" s="1">
         <v>20.76</v>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E104" s="6">
         <v>0.31</v>
@@ -4468,7 +4468,7 @@
         <v>73.58</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K104" s="1">
         <v>0.7</v>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E105" s="6">
         <v>2.59</v>
@@ -4503,7 +4503,7 @@
         <v>91.1</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K105" s="1">
         <v>4.17</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E106" s="6">
         <v>1.76</v>
@@ -4538,7 +4538,7 @@
         <v>47.9</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K106" s="1">
         <v>0.68</v>
@@ -4546,16 +4546,16 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E107" s="6">
         <v>14.45</v>
@@ -4573,7 +4573,7 @@
         <v>95.77</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K107" s="1">
         <v>69.25</v>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E108" s="6">
         <v>0.83</v>
@@ -4608,7 +4608,7 @@
         <v>54.96</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K108" s="1">
         <v>0.7</v>
@@ -4616,16 +4616,16 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E109" s="6">
         <v>0.41</v>
@@ -4637,13 +4637,13 @@
         <v>0.71</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I109" s="6">
         <v>0</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K109" s="1">
         <v>0</v>
@@ -4651,16 +4651,16 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E110" s="6">
         <v>2.79</v>
@@ -4678,7 +4678,7 @@
         <v>77.44</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K110" s="1">
         <v>1.1299999999999999</v>
@@ -4686,16 +4686,16 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E111" s="6">
         <v>1.34</v>
@@ -4707,13 +4707,13 @@
         <v>1.91</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I111" s="6">
         <v>38.24</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K111" s="1">
         <v>0.2</v>
@@ -4721,16 +4721,16 @@
     </row>
     <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E112" s="9">
         <v>1.01</v>
@@ -4742,13 +4742,13 @@
         <v>1.75</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9">
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K112" s="1">
         <v>0</v>
@@ -4756,16 +4756,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E113" s="9">
         <v>1.1200000000000001</v>
@@ -4777,13 +4777,13 @@
         <v>2.19</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9">
         <v>79.150000000000006</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K113" s="1">
         <v>0.91</v>
@@ -4791,16 +4791,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E114" s="9">
         <v>2.5</v>
@@ -4812,13 +4812,13 @@
         <v>3.67</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I114" s="9">
         <v>26.87</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K114" s="1">
         <v>0.28999999999999998</v>
@@ -4826,16 +4826,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E115" s="9">
         <v>0.8</v>
@@ -4847,13 +4847,13 @@
         <v>1.7</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9">
         <v>69.010000000000005</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K115" s="1">
         <v>0.44</v>
@@ -4861,16 +4861,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E116" s="9">
         <v>2.42</v>
@@ -4888,7 +4888,7 @@
         <v>88.29</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K116" s="1">
         <v>3.51</v>
@@ -4896,16 +4896,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E117" s="9">
         <v>1.06</v>
@@ -4923,7 +4923,7 @@
         <v>67.95</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K117" s="1">
         <v>0.81</v>
@@ -4931,16 +4931,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E118" s="9">
         <v>2.69</v>
@@ -4958,7 +4958,7 @@
         <v>94.95</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K118" s="1">
         <v>7.52</v>
@@ -4966,16 +4966,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E119" s="9">
         <v>2.1</v>
@@ -4993,7 +4993,7 @@
         <v>82.05</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K119" s="1">
         <v>2.19</v>
@@ -5001,16 +5001,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E120" s="9">
         <v>1.1499999999999999</v>
@@ -5028,7 +5028,7 @@
         <v>78</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K120" s="1">
         <v>1.17</v>
@@ -5036,16 +5036,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E121" s="9">
         <v>1.36</v>
@@ -5063,7 +5063,7 @@
         <v>78.73</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K121" s="1">
         <v>1.48</v>
@@ -5071,16 +5071,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E122" s="9">
         <v>1.57</v>
@@ -5098,7 +5098,7 @@
         <v>76.45</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K122" s="1">
         <v>1.17</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E123" s="9">
         <v>1.17</v>
@@ -5133,7 +5133,7 @@
         <v>64.239999999999995</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K123" s="1">
         <v>0.56000000000000005</v>
@@ -5141,16 +5141,16 @@
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E124" s="9">
         <v>15.68</v>
@@ -5162,13 +5162,13 @@
         <v>20.07</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9">
         <v>24.84</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K124" s="1">
         <v>5.0599999999999996</v>
@@ -5176,16 +5176,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E125" s="9">
         <v>1.95</v>
@@ -5203,7 +5203,7 @@
         <v>84.93</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K125" s="1">
         <v>2.38</v>
@@ -5211,16 +5211,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E126" s="9">
         <v>1.69</v>
@@ -5238,7 +5238,7 @@
         <v>87.47</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K126" s="1">
         <v>3.48</v>
@@ -5246,16 +5246,16 @@
     </row>
     <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E127" s="9">
         <v>1.73</v>
@@ -5267,13 +5267,13 @@
         <v>2.58</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I127" s="9">
         <v>0</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K127" s="1">
         <v>0</v>
@@ -5281,16 +5281,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E128" s="9">
         <v>1.89</v>
@@ -5308,7 +5308,7 @@
         <v>87.97</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K128" s="1">
         <v>3.46</v>
@@ -5316,16 +5316,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E129" s="9">
         <v>1.0900000000000001</v>
@@ -5343,7 +5343,7 @@
         <v>71.38</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K129" s="1">
         <v>0.81</v>
@@ -5351,16 +5351,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E130" s="9">
         <v>2.1800000000000002</v>
@@ -5378,7 +5378,7 @@
         <v>85.34</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K130" s="1">
         <v>2.31</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E131" s="9">
         <v>1.45</v>
@@ -5413,7 +5413,7 @@
         <v>79.09</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K131" s="1">
         <v>1.52</v>
@@ -5421,16 +5421,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2">
         <v>1.4</v>
@@ -5448,7 +5448,7 @@
         <v>82.53</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K132" s="1">
         <v>1.64</v>

--- a/data/subgruposppt.xlsx
+++ b/data/subgruposppt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamires\OneDrive - UFSC\PC LAB\martins2023\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/tamires_martins_ufsc_br/Documents/PC LAB/martins2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C1C7C836-8328-450F-9C24-F0B29ADFBD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC55DCE3-09A1-43E8-A55A-11A130583194}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -179,15 +179,9 @@
     </r>
   </si>
   <si>
-    <t>T6’ + S4’final</t>
-  </si>
-  <si>
     <t>T6’</t>
   </si>
   <si>
-    <t>PT15’ + T6’ + S4’final</t>
-  </si>
-  <si>
     <t>PT15’ + T6’</t>
   </si>
   <si>
@@ -198,12 +192,6 @@
   </si>
   <si>
     <t>PT5’ + T5’</t>
-  </si>
-  <si>
-    <t>T5’ + S4’final</t>
-  </si>
-  <si>
-    <t>T7’ + S6’ final</t>
   </si>
   <si>
     <r>
@@ -221,15 +209,9 @@
     </r>
   </si>
   <si>
-    <t>T6’ + S5’final</t>
-  </si>
-  <si>
     <t>T9’</t>
   </si>
   <si>
-    <t>PT15’ + T6’ + S5’ final</t>
-  </si>
-  <si>
     <t>T10’</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
     <t>PT13’ + T6’</t>
   </si>
   <si>
-    <t>PT?’ + T6’ + S4’ final</t>
-  </si>
-  <si>
     <t>T15’</t>
   </si>
   <si>
@@ -435,6 +414,27 @@
   </si>
   <si>
     <t>Flinders resistant</t>
+  </si>
+  <si>
+    <t>PT15’ + T6’ + S5’</t>
+  </si>
+  <si>
+    <t>PT?’ + T6’ + S4’</t>
+  </si>
+  <si>
+    <t>T6’ + S5’</t>
+  </si>
+  <si>
+    <t>T7’ + S6’</t>
+  </si>
+  <si>
+    <t>T5’ + S4’</t>
+  </si>
+  <si>
+    <t>T6’ + S4’</t>
+  </si>
+  <si>
+    <t>PT15’ + T6’ + S4’</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,25 +836,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
@@ -866,21 +866,21 @@
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3">
         <v>1.84</v>
@@ -898,7 +898,7 @@
         <v>82.88</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1">
         <v>2.0699999999999998</v>
@@ -906,16 +906,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>1.65</v>
@@ -933,7 +933,7 @@
         <v>78.89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K3" s="1">
         <v>1.53</v>
@@ -941,16 +941,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>1.01</v>
@@ -968,7 +968,7 @@
         <v>43.15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1">
         <v>0.28000000000000003</v>
@@ -976,16 +976,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>3.84</v>
@@ -1003,7 +1003,7 @@
         <v>82.35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1">
         <v>3.71</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>7.26</v>
@@ -1038,7 +1038,7 @@
         <v>98.01</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1">
         <v>33.08</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>91.56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K7" s="1">
         <v>6.05</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>57.71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1">
         <v>0.64</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>74.760000000000005</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K9" s="1">
         <v>0.68</v>
@@ -1151,13 +1151,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1178,7 +1178,7 @@
         <v>53.19</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1">
         <v>0.4</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -1213,7 +1213,7 @@
         <v>99.09</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1">
         <v>77.52</v>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -1248,7 +1248,7 @@
         <v>87.57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1">
         <v>12.37</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1283,7 +1283,7 @@
         <v>71.52</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K13" s="1">
         <v>0.67</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1318,7 +1318,7 @@
         <v>87.86</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1">
         <v>2.41</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -1353,7 +1353,7 @@
         <v>38.24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1">
         <v>0.2</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -1388,7 +1388,7 @@
         <v>26.81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1">
         <v>0.52</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2">
         <v>6.87</v>
@@ -1423,7 +1423,7 @@
         <v>88.55</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K17" s="1">
         <v>15.72</v>
@@ -1431,13 +1431,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1493,7 +1493,7 @@
         <v>26.9</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1">
         <v>0.11</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2">
         <v>1.86</v>
@@ -1528,7 +1528,7 @@
         <v>85.87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K20" s="1">
         <v>2.5</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2">
         <v>1.82</v>
@@ -1563,7 +1563,7 @@
         <v>82.4</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K21" s="1">
         <v>2.0099999999999998</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1598,7 +1598,7 @@
         <v>65.77</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1">
         <v>0.75</v>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
@@ -1633,7 +1633,7 @@
         <v>87.38</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1">
         <v>3.55</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2">
         <v>8.06</v>
@@ -1668,7 +1668,7 @@
         <v>99.36</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K24" s="1">
         <v>68.11</v>
@@ -1676,16 +1676,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2">
         <v>3.24</v>
@@ -1703,7 +1703,7 @@
         <v>95.41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K25" s="1">
         <v>7.95</v>
@@ -1711,16 +1711,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E26" s="3">
         <v>1.44</v>
@@ -1738,7 +1738,7 @@
         <v>79.72</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K26" s="1">
         <v>1.53</v>
@@ -1746,16 +1746,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2">
         <v>1.33</v>
@@ -1773,7 +1773,7 @@
         <v>77.510000000000005</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1">
         <v>1.32</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1808,7 +1808,7 @@
         <v>88.75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K28" s="1">
         <v>2.79</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2">
         <v>9.5299999999999994</v>
@@ -1843,7 +1843,7 @@
         <v>97.67</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1">
         <v>64.7</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2">
         <v>2.2599999999999998</v>
@@ -1878,7 +1878,7 @@
         <v>80.930000000000007</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K30" s="1">
         <v>2.65</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
@@ -1913,7 +1913,7 @@
         <v>73.569999999999993</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K31" s="1">
         <v>1.19</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1948,7 +1948,7 @@
         <v>95.27</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K32" s="1">
         <v>7.84</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>16</v>
@@ -1983,7 +1983,7 @@
         <v>2.19</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K33" s="1">
         <v>1E-3</v>
@@ -1991,16 +1991,16 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2">
         <v>1.06</v>
@@ -2018,7 +2018,7 @@
         <v>48.7</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K34" s="1">
         <v>0.26</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>17</v>
@@ -2053,7 +2053,7 @@
         <v>63.96</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K35" s="1">
         <v>0.41</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2088,7 +2088,7 @@
         <v>19.73</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K36" s="1">
         <v>0.08</v>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2">
         <v>0.13</v>
@@ -2123,7 +2123,7 @@
         <v>40.96</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K37" s="1">
         <v>0.11</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2">
         <v>1.28</v>
@@ -2158,7 +2158,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K38" s="1">
         <v>0.82</v>
@@ -2166,16 +2166,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2">
         <v>1.53</v>
@@ -2193,7 +2193,7 @@
         <v>82.8</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K39" s="1">
         <v>2.0099999999999998</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
@@ -2228,7 +2228,7 @@
         <v>74.92</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K40" s="1">
         <v>1.1599999999999999</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
@@ -2263,7 +2263,7 @@
         <v>70.650000000000006</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K41" s="1">
         <v>1.01</v>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2">
         <v>3.88</v>
@@ -2298,7 +2298,7 @@
         <v>97.36</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K42" s="1">
         <v>18.440000000000001</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
@@ -2333,7 +2333,7 @@
         <v>74.98</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K43" s="1">
         <v>1.05</v>
@@ -2341,16 +2341,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2">
         <v>0.5</v>
@@ -2368,7 +2368,7 @@
         <v>36.26</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K44" s="1">
         <v>0.14000000000000001</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>28</v>
@@ -2403,7 +2403,7 @@
         <v>60.92</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K45" s="1">
         <v>1.37</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E46" s="9">
         <v>2.12</v>
@@ -2438,7 +2438,7 @@
         <v>88.33</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K46" s="1">
         <v>3.14</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D47" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E47" s="9">
         <v>3.7</v>
@@ -2473,7 +2473,7 @@
         <v>96.44</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K47" s="1">
         <v>14.22</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E48" s="9">
         <v>1.47</v>
@@ -2508,7 +2508,7 @@
         <v>69.06</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K48" s="1">
         <v>0.88</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E49" s="9">
         <v>1.21</v>
@@ -2543,7 +2543,7 @@
         <v>41.21</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K49" s="1">
         <v>0.17</v>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D50" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E50" s="9">
         <v>0.05</v>
@@ -2578,7 +2578,7 @@
         <v>71.38</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K50" s="1">
         <v>0.63</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E51" s="9">
         <v>1.29</v>
@@ -2613,7 +2613,7 @@
         <v>69.349999999999994</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K51" s="1">
         <v>1.1299999999999999</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E52" s="9">
         <v>2.1</v>
@@ -2648,7 +2648,7 @@
         <v>83.32</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K52" s="1">
         <v>2.4</v>
@@ -2656,16 +2656,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E53" s="9">
         <v>2.35</v>
@@ -2683,7 +2683,7 @@
         <v>85.72</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K53" s="1">
         <v>2.54</v>
@@ -2691,16 +2691,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E54" s="9">
         <v>1.04</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2726,13 +2726,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>29</v>
@@ -2753,7 +2753,7 @@
         <v>84.11</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K55" s="1">
         <v>16.72</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>30</v>
@@ -2788,7 +2788,7 @@
         <v>59.16</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K56" s="1">
         <v>0.41</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E57" s="9">
         <v>0.96</v>
@@ -2823,7 +2823,7 @@
         <v>68.28</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K57" s="1">
         <v>0.46</v>
@@ -2831,16 +2831,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E58" s="9">
         <v>2.04</v>
@@ -2858,7 +2858,7 @@
         <v>88.39</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K58" s="1">
         <v>3.64</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E59" s="9">
         <v>1.37</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>32</v>
@@ -2928,7 +2928,7 @@
         <v>79.66</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K60" s="1">
         <v>21.92</v>
@@ -2936,16 +2936,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D61" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E61" s="9">
         <v>0.74</v>
@@ -2963,7 +2963,7 @@
         <v>32.75</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K61" s="1">
         <v>0.16</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E62" s="9">
         <v>0.35</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -3006,16 +3006,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E63" s="9">
         <v>1.1499999999999999</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
@@ -3041,16 +3041,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E64" s="9">
         <v>0.63</v>
@@ -3068,7 +3068,7 @@
         <v>21.33</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K64" s="1">
         <v>0.17</v>
@@ -3076,16 +3076,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E65" s="9">
         <v>0.8</v>
@@ -3103,7 +3103,7 @@
         <v>38.24</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K65" s="1">
         <v>0.18</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E66" s="9">
         <v>1.42</v>
@@ -3138,7 +3138,7 @@
         <v>31.03</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K66" s="1">
         <v>0.21</v>
@@ -3146,16 +3146,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E67" s="9">
         <v>0.33</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -3181,13 +3181,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>33</v>
@@ -3208,7 +3208,7 @@
         <v>76.05</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K68" s="1">
         <v>1.44</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>34</v>
@@ -3243,7 +3243,7 @@
         <v>89.34</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K69" s="1">
         <v>3.32</v>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E70" s="9">
         <v>2.42</v>
@@ -3278,7 +3278,7 @@
         <v>78.77</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K70" s="1">
         <v>1.66</v>
@@ -3286,16 +3286,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E71" s="9">
         <v>0.17</v>
@@ -3313,7 +3313,7 @@
         <v>50.62</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K71" s="1">
         <v>0.3</v>
@@ -3321,16 +3321,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E72" s="9">
         <v>8.6999999999999993</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K72" s="1">
         <v>0</v>
@@ -3356,16 +3356,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E73" s="9">
         <v>1.71</v>
@@ -3383,7 +3383,7 @@
         <v>82.01</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K73" s="1">
         <v>1.98</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E74" s="9">
         <v>2.64</v>
@@ -3418,7 +3418,7 @@
         <v>93.68</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K74" s="1">
         <v>6.88</v>
@@ -3426,16 +3426,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E75" s="9">
         <v>1.19</v>
@@ -3453,7 +3453,7 @@
         <v>67.88</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K75" s="1">
         <v>0.7</v>
@@ -3461,16 +3461,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E76" s="9">
         <v>1.28</v>
@@ -3488,7 +3488,7 @@
         <v>35.07</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K76" s="1">
         <v>0.44</v>
@@ -3496,16 +3496,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E77" s="9">
         <v>0.2</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K77" s="1">
         <v>0</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D78" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E78" s="9">
         <v>1.32</v>
@@ -3558,7 +3558,7 @@
         <v>81</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K78" s="1">
         <v>1.42</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D79" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E79" s="9">
         <v>1.65</v>
@@ -3593,7 +3593,7 @@
         <v>83.92</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K79" s="1">
         <v>1.91</v>
@@ -3601,16 +3601,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D80" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E80" s="9">
         <v>2.09</v>
@@ -3628,7 +3628,7 @@
         <v>85.62</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K80" s="1">
         <v>2.46</v>
@@ -3636,16 +3636,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D81" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E81" s="9">
         <v>0.2</v>
@@ -3663,7 +3663,7 @@
         <v>0.87</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K81" s="1">
         <v>2E-3</v>
@@ -3671,16 +3671,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="D82" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E82" s="9">
         <v>0.48</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K82" s="1">
         <v>0</v>
@@ -3706,13 +3706,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>30</v>
@@ -3733,7 +3733,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K83" s="1">
         <v>0.08</v>
@@ -3741,13 +3741,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>29</v>
@@ -3768,7 +3768,7 @@
         <v>71.95</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K84" s="1">
         <v>0.43</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E85" s="9">
         <v>1.01</v>
@@ -3803,7 +3803,7 @@
         <v>54.84</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K85" s="1">
         <v>0.55000000000000004</v>
@@ -3811,16 +3811,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E86" s="9">
         <v>1.21</v>
@@ -3838,7 +3838,7 @@
         <v>43.77</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K86" s="1">
         <v>0.48</v>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E87" s="9">
         <v>2.86</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K87" s="1">
         <v>0</v>
@@ -3881,16 +3881,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E88" s="9">
         <v>0.55000000000000004</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
@@ -3916,16 +3916,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E89" s="9">
         <v>0.31</v>
@@ -3943,7 +3943,7 @@
         <v>43.96</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K89" s="1">
         <v>0.21</v>
@@ -3951,16 +3951,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E90" s="9">
         <v>0.73</v>
@@ -3978,7 +3978,7 @@
         <v>79.069999999999993</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K90" s="1">
         <v>1.92</v>
@@ -3986,16 +3986,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E91" s="9">
         <v>1.35</v>
@@ -4013,7 +4013,7 @@
         <v>82.54</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K91" s="1">
         <v>2.64</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E92" s="9">
         <v>-0.36</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E93" s="9">
         <v>2.52</v>
@@ -4083,7 +4083,7 @@
         <v>72.930000000000007</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K93" s="1">
         <v>2</v>
@@ -4091,13 +4091,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>33</v>
@@ -4118,7 +4118,7 @@
         <v>74.81</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K94" s="1">
         <v>1.19</v>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>34</v>
@@ -4153,7 +4153,7 @@
         <v>88.21</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K95" s="1">
         <v>3.14</v>
@@ -4161,16 +4161,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E96" s="9">
         <v>1.44</v>
@@ -4188,7 +4188,7 @@
         <v>78.959999999999994</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K96" s="1">
         <v>1.1299999999999999</v>
@@ -4196,16 +4196,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E97" s="9">
         <v>4.4800000000000004</v>
@@ -4223,7 +4223,7 @@
         <v>98.4</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K97" s="1">
         <v>32.61</v>
@@ -4231,16 +4231,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E98" s="9">
         <v>1.1399999999999999</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K98" s="1">
         <v>0</v>
@@ -4266,16 +4266,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E99" s="9">
         <v>0.64</v>
@@ -4293,7 +4293,7 @@
         <v>79.23</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K99" s="1">
         <v>0.57999999999999996</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>35</v>
@@ -4328,7 +4328,7 @@
         <v>61</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K100" s="1">
         <v>1.46</v>
@@ -4336,16 +4336,16 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="E101" s="6">
         <v>1.63</v>
@@ -4363,7 +4363,7 @@
         <v>76.73</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K101" s="1">
         <v>1.19</v>
@@ -4371,16 +4371,16 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102" s="6">
         <v>1.81</v>
@@ -4398,7 +4398,7 @@
         <v>64.41</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K102" s="1">
         <v>1.22</v>
@@ -4406,16 +4406,16 @@
     </row>
     <row r="103" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="E103" s="6">
         <v>5.57</v>
@@ -4433,7 +4433,7 @@
         <v>93.96</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K103" s="1">
         <v>20.76</v>
@@ -4441,16 +4441,16 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E104" s="6">
         <v>0.31</v>
@@ -4468,7 +4468,7 @@
         <v>73.58</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K104" s="1">
         <v>0.7</v>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E105" s="6">
         <v>2.59</v>
@@ -4503,7 +4503,7 @@
         <v>91.1</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K105" s="1">
         <v>4.17</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E106" s="6">
         <v>1.76</v>
@@ -4538,7 +4538,7 @@
         <v>47.9</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K106" s="1">
         <v>0.68</v>
@@ -4546,16 +4546,16 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E107" s="6">
         <v>14.45</v>
@@ -4573,7 +4573,7 @@
         <v>95.77</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K107" s="1">
         <v>69.25</v>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E108" s="6">
         <v>0.83</v>
@@ -4608,7 +4608,7 @@
         <v>54.96</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K108" s="1">
         <v>0.7</v>
@@ -4616,16 +4616,16 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E109" s="6">
         <v>0.41</v>
@@ -4637,13 +4637,13 @@
         <v>0.71</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I109" s="6">
         <v>0</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K109" s="1">
         <v>0</v>
@@ -4651,16 +4651,16 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="E110" s="6">
         <v>2.79</v>
@@ -4678,7 +4678,7 @@
         <v>77.44</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K110" s="1">
         <v>1.1299999999999999</v>
@@ -4686,16 +4686,16 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E111" s="6">
         <v>1.34</v>
@@ -4713,24 +4713,24 @@
         <v>38.24</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K111" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E112" s="9">
         <v>1.01</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K112" s="1">
         <v>0</v>
@@ -4756,16 +4756,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E113" s="9">
         <v>1.1200000000000001</v>
@@ -4783,7 +4783,7 @@
         <v>79.150000000000006</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K113" s="1">
         <v>0.91</v>
@@ -4791,16 +4791,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E114" s="9">
         <v>2.5</v>
@@ -4818,7 +4818,7 @@
         <v>26.87</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K114" s="1">
         <v>0.28999999999999998</v>
@@ -4826,16 +4826,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E115" s="9">
         <v>0.8</v>
@@ -4853,7 +4853,7 @@
         <v>69.010000000000005</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K115" s="1">
         <v>0.44</v>
@@ -4861,16 +4861,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E116" s="9">
         <v>2.42</v>
@@ -4888,7 +4888,7 @@
         <v>88.29</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K116" s="1">
         <v>3.51</v>
@@ -4896,16 +4896,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E117" s="9">
         <v>1.06</v>
@@ -4923,7 +4923,7 @@
         <v>67.95</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K117" s="1">
         <v>0.81</v>
@@ -4931,16 +4931,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E118" s="9">
         <v>2.69</v>
@@ -4958,7 +4958,7 @@
         <v>94.95</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K118" s="1">
         <v>7.52</v>
@@ -4966,16 +4966,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E119" s="9">
         <v>2.1</v>
@@ -4993,7 +4993,7 @@
         <v>82.05</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K119" s="1">
         <v>2.19</v>
@@ -5001,16 +5001,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E120" s="9">
         <v>1.1499999999999999</v>
@@ -5028,7 +5028,7 @@
         <v>78</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K120" s="1">
         <v>1.17</v>
@@ -5036,16 +5036,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E121" s="9">
         <v>1.36</v>
@@ -5063,7 +5063,7 @@
         <v>78.73</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K121" s="1">
         <v>1.48</v>
@@ -5071,16 +5071,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E122" s="9">
         <v>1.57</v>
@@ -5098,7 +5098,7 @@
         <v>76.45</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K122" s="1">
         <v>1.17</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E123" s="9">
         <v>1.17</v>
@@ -5133,24 +5133,24 @@
         <v>64.239999999999995</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K123" s="1">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E124" s="9">
         <v>15.68</v>
@@ -5168,7 +5168,7 @@
         <v>24.84</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K124" s="1">
         <v>5.0599999999999996</v>
@@ -5176,16 +5176,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E125" s="9">
         <v>1.95</v>
@@ -5203,7 +5203,7 @@
         <v>84.93</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K125" s="1">
         <v>2.38</v>
@@ -5211,16 +5211,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E126" s="9">
         <v>1.69</v>
@@ -5238,24 +5238,24 @@
         <v>87.47</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K126" s="1">
         <v>3.48</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E127" s="9">
         <v>1.73</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K127" s="1">
         <v>0</v>
@@ -5281,16 +5281,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E128" s="9">
         <v>1.89</v>
@@ -5308,7 +5308,7 @@
         <v>87.97</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K128" s="1">
         <v>3.46</v>
@@ -5316,16 +5316,16 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E129" s="9">
         <v>1.0900000000000001</v>
@@ -5343,7 +5343,7 @@
         <v>71.38</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K129" s="1">
         <v>0.81</v>
@@ -5351,16 +5351,16 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E130" s="9">
         <v>2.1800000000000002</v>
@@ -5378,7 +5378,7 @@
         <v>85.34</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K130" s="1">
         <v>2.31</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E131" s="9">
         <v>1.45</v>
@@ -5413,7 +5413,7 @@
         <v>79.09</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K131" s="1">
         <v>1.52</v>
@@ -5421,16 +5421,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E132" s="2">
         <v>1.4</v>
@@ -5448,7 +5448,7 @@
         <v>82.53</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K132" s="1">
         <v>1.64</v>
